--- a/Bilder/Video-Timing.xlsx
+++ b/Bilder/Video-Timing.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Heiko\Nextcloud\Privat\Ju-Te\ES 4.0\HW-HST\JU-TE-6K-Video-HW-Patch-Dev\Bilder\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC8FFA52-72EE-4B35-87FA-E0F44AE6CB64}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1EFA8B39-9AAC-4C7F-8128-CD6D0C8D692E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="11390" yWindow="170" windowWidth="26720" windowHeight="19600" xr2:uid="{BFF85656-8F86-419E-B4CA-9950E9AA8AA6}"/>
   </bookViews>
@@ -99,13 +99,6 @@
     <t>Y2</t>
   </si>
   <si>
-    <t>Y1(S1)</t>
-  </si>
-  <si>
-    <t>Y1(S1)
-D14 (DL295)</t>
-  </si>
-  <si>
     <t>Y2
 D14 (DL295)</t>
   </si>
@@ -119,6 +112,13 @@
   <si>
     <t>Host-CPU
 (synchron)</t>
+  </si>
+  <si>
+    <t>Y3(S1)
+D14 (DL295)</t>
+  </si>
+  <si>
+    <t>Y3(S1)</t>
   </si>
 </sst>
 </file>
@@ -466,38 +466,53 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -520,41 +535,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -564,20 +544,40 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2041,7 +2041,7 @@
   <dimension ref="B1:BD191"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="50" zoomScaleNormal="50" workbookViewId="0">
-      <selection activeCell="BN63" sqref="BN63"/>
+      <selection activeCell="BO63" sqref="BO63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="28.5" x14ac:dyDescent="0.35"/>
@@ -2054,120 +2054,120 @@
     <row r="1" spans="2:52" ht="17.5" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="2" spans="2:52" ht="17.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4"/>
     <row r="3" spans="2:52" ht="17.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="38" t="s">
-        <v>27</v>
-      </c>
-      <c r="E3" s="49" t="s">
+      <c r="B3" s="71" t="s">
+        <v>25</v>
+      </c>
+      <c r="E3" s="54" t="s">
         <v>3</v>
       </c>
-      <c r="F3" s="50"/>
-      <c r="G3" s="50"/>
-      <c r="H3" s="50"/>
-      <c r="I3" s="50"/>
-      <c r="J3" s="50"/>
-      <c r="K3" s="50"/>
-      <c r="L3" s="51"/>
-      <c r="M3" s="49" t="s">
+      <c r="F3" s="55"/>
+      <c r="G3" s="55"/>
+      <c r="H3" s="55"/>
+      <c r="I3" s="55"/>
+      <c r="J3" s="55"/>
+      <c r="K3" s="55"/>
+      <c r="L3" s="56"/>
+      <c r="M3" s="54" t="s">
         <v>6</v>
       </c>
-      <c r="N3" s="50"/>
-      <c r="O3" s="50"/>
-      <c r="P3" s="50"/>
-      <c r="Q3" s="50"/>
-      <c r="R3" s="50"/>
-      <c r="S3" s="50"/>
-      <c r="T3" s="51"/>
-      <c r="U3" s="49" t="s">
+      <c r="N3" s="55"/>
+      <c r="O3" s="55"/>
+      <c r="P3" s="55"/>
+      <c r="Q3" s="55"/>
+      <c r="R3" s="55"/>
+      <c r="S3" s="55"/>
+      <c r="T3" s="56"/>
+      <c r="U3" s="54" t="s">
         <v>4</v>
       </c>
-      <c r="V3" s="50"/>
-      <c r="W3" s="50"/>
-      <c r="X3" s="50"/>
-      <c r="Y3" s="50"/>
-      <c r="Z3" s="50"/>
-      <c r="AA3" s="50"/>
-      <c r="AB3" s="51"/>
-      <c r="AC3" s="49" t="s">
+      <c r="V3" s="55"/>
+      <c r="W3" s="55"/>
+      <c r="X3" s="55"/>
+      <c r="Y3" s="55"/>
+      <c r="Z3" s="55"/>
+      <c r="AA3" s="55"/>
+      <c r="AB3" s="56"/>
+      <c r="AC3" s="54" t="s">
         <v>5</v>
       </c>
-      <c r="AD3" s="50"/>
-      <c r="AE3" s="50"/>
-      <c r="AF3" s="50"/>
-      <c r="AG3" s="50"/>
-      <c r="AH3" s="50"/>
-      <c r="AI3" s="50"/>
-      <c r="AJ3" s="51"/>
-      <c r="AK3" s="49" t="s">
+      <c r="AD3" s="55"/>
+      <c r="AE3" s="55"/>
+      <c r="AF3" s="55"/>
+      <c r="AG3" s="55"/>
+      <c r="AH3" s="55"/>
+      <c r="AI3" s="55"/>
+      <c r="AJ3" s="56"/>
+      <c r="AK3" s="54" t="s">
         <v>3</v>
       </c>
-      <c r="AL3" s="50"/>
-      <c r="AM3" s="50"/>
-      <c r="AN3" s="50"/>
-      <c r="AO3" s="50"/>
-      <c r="AP3" s="50"/>
-      <c r="AQ3" s="50"/>
-      <c r="AR3" s="51"/>
-      <c r="AS3" s="49" t="s">
+      <c r="AL3" s="55"/>
+      <c r="AM3" s="55"/>
+      <c r="AN3" s="55"/>
+      <c r="AO3" s="55"/>
+      <c r="AP3" s="55"/>
+      <c r="AQ3" s="55"/>
+      <c r="AR3" s="56"/>
+      <c r="AS3" s="54" t="s">
         <v>6</v>
       </c>
-      <c r="AT3" s="50"/>
-      <c r="AU3" s="50"/>
-      <c r="AV3" s="50"/>
-      <c r="AW3" s="50"/>
-      <c r="AX3" s="50"/>
-      <c r="AY3" s="50"/>
-      <c r="AZ3" s="51"/>
+      <c r="AT3" s="55"/>
+      <c r="AU3" s="55"/>
+      <c r="AV3" s="55"/>
+      <c r="AW3" s="55"/>
+      <c r="AX3" s="55"/>
+      <c r="AY3" s="55"/>
+      <c r="AZ3" s="56"/>
     </row>
     <row r="4" spans="2:52" ht="17.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B4" s="39"/>
-      <c r="E4" s="52"/>
-      <c r="F4" s="53"/>
-      <c r="G4" s="53"/>
-      <c r="H4" s="53"/>
-      <c r="I4" s="53"/>
-      <c r="J4" s="53"/>
-      <c r="K4" s="53"/>
-      <c r="L4" s="54"/>
-      <c r="M4" s="52"/>
-      <c r="N4" s="53"/>
-      <c r="O4" s="53"/>
-      <c r="P4" s="53"/>
-      <c r="Q4" s="53"/>
-      <c r="R4" s="53"/>
-      <c r="S4" s="53"/>
-      <c r="T4" s="54"/>
-      <c r="U4" s="52"/>
-      <c r="V4" s="53"/>
-      <c r="W4" s="53"/>
-      <c r="X4" s="53"/>
-      <c r="Y4" s="53"/>
-      <c r="Z4" s="53"/>
-      <c r="AA4" s="53"/>
-      <c r="AB4" s="54"/>
-      <c r="AC4" s="52"/>
-      <c r="AD4" s="53"/>
-      <c r="AE4" s="53"/>
-      <c r="AF4" s="53"/>
-      <c r="AG4" s="53"/>
-      <c r="AH4" s="53"/>
-      <c r="AI4" s="53"/>
-      <c r="AJ4" s="54"/>
-      <c r="AK4" s="52"/>
-      <c r="AL4" s="53"/>
-      <c r="AM4" s="53"/>
-      <c r="AN4" s="53"/>
-      <c r="AO4" s="53"/>
-      <c r="AP4" s="53"/>
-      <c r="AQ4" s="53"/>
-      <c r="AR4" s="54"/>
-      <c r="AS4" s="52"/>
-      <c r="AT4" s="53"/>
-      <c r="AU4" s="53"/>
-      <c r="AV4" s="53"/>
-      <c r="AW4" s="53"/>
-      <c r="AX4" s="53"/>
-      <c r="AY4" s="53"/>
-      <c r="AZ4" s="54"/>
+      <c r="B4" s="72"/>
+      <c r="E4" s="57"/>
+      <c r="F4" s="58"/>
+      <c r="G4" s="58"/>
+      <c r="H4" s="58"/>
+      <c r="I4" s="58"/>
+      <c r="J4" s="58"/>
+      <c r="K4" s="58"/>
+      <c r="L4" s="59"/>
+      <c r="M4" s="57"/>
+      <c r="N4" s="58"/>
+      <c r="O4" s="58"/>
+      <c r="P4" s="58"/>
+      <c r="Q4" s="58"/>
+      <c r="R4" s="58"/>
+      <c r="S4" s="58"/>
+      <c r="T4" s="59"/>
+      <c r="U4" s="57"/>
+      <c r="V4" s="58"/>
+      <c r="W4" s="58"/>
+      <c r="X4" s="58"/>
+      <c r="Y4" s="58"/>
+      <c r="Z4" s="58"/>
+      <c r="AA4" s="58"/>
+      <c r="AB4" s="59"/>
+      <c r="AC4" s="57"/>
+      <c r="AD4" s="58"/>
+      <c r="AE4" s="58"/>
+      <c r="AF4" s="58"/>
+      <c r="AG4" s="58"/>
+      <c r="AH4" s="58"/>
+      <c r="AI4" s="58"/>
+      <c r="AJ4" s="59"/>
+      <c r="AK4" s="57"/>
+      <c r="AL4" s="58"/>
+      <c r="AM4" s="58"/>
+      <c r="AN4" s="58"/>
+      <c r="AO4" s="58"/>
+      <c r="AP4" s="58"/>
+      <c r="AQ4" s="58"/>
+      <c r="AR4" s="59"/>
+      <c r="AS4" s="57"/>
+      <c r="AT4" s="58"/>
+      <c r="AU4" s="58"/>
+      <c r="AV4" s="58"/>
+      <c r="AW4" s="58"/>
+      <c r="AX4" s="58"/>
+      <c r="AY4" s="58"/>
+      <c r="AZ4" s="59"/>
     </row>
     <row r="5" spans="2:52" ht="17.5" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="6" spans="2:52" ht="17.5" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -2560,57 +2560,57 @@
       </c>
       <c r="D23" s="10"/>
       <c r="E23" s="17"/>
-      <c r="F23" s="41" t="s">
+      <c r="F23" s="50" t="s">
         <v>12</v>
       </c>
-      <c r="G23" s="41"/>
-      <c r="H23" s="41"/>
-      <c r="I23" s="41"/>
-      <c r="J23" s="41"/>
-      <c r="K23" s="41"/>
-      <c r="L23" s="41"/>
-      <c r="M23" s="41"/>
-      <c r="N23" s="41"/>
-      <c r="O23" s="41"/>
-      <c r="P23" s="41"/>
-      <c r="Q23" s="41"/>
-      <c r="R23" s="41"/>
-      <c r="S23" s="41"/>
-      <c r="T23" s="41"/>
-      <c r="U23" s="41"/>
-      <c r="V23" s="41"/>
-      <c r="W23" s="41"/>
-      <c r="X23" s="41"/>
-      <c r="Y23" s="41"/>
-      <c r="Z23" s="41"/>
-      <c r="AA23" s="41"/>
-      <c r="AB23" s="41"/>
-      <c r="AC23" s="41"/>
-      <c r="AD23" s="41"/>
-      <c r="AE23" s="41"/>
-      <c r="AF23" s="41"/>
-      <c r="AG23" s="41"/>
-      <c r="AH23" s="41"/>
-      <c r="AI23" s="41"/>
+      <c r="G23" s="50"/>
+      <c r="H23" s="50"/>
+      <c r="I23" s="50"/>
+      <c r="J23" s="50"/>
+      <c r="K23" s="50"/>
+      <c r="L23" s="50"/>
+      <c r="M23" s="50"/>
+      <c r="N23" s="50"/>
+      <c r="O23" s="50"/>
+      <c r="P23" s="50"/>
+      <c r="Q23" s="50"/>
+      <c r="R23" s="50"/>
+      <c r="S23" s="50"/>
+      <c r="T23" s="50"/>
+      <c r="U23" s="50"/>
+      <c r="V23" s="50"/>
+      <c r="W23" s="50"/>
+      <c r="X23" s="50"/>
+      <c r="Y23" s="50"/>
+      <c r="Z23" s="50"/>
+      <c r="AA23" s="50"/>
+      <c r="AB23" s="50"/>
+      <c r="AC23" s="50"/>
+      <c r="AD23" s="50"/>
+      <c r="AE23" s="50"/>
+      <c r="AF23" s="50"/>
+      <c r="AG23" s="50"/>
+      <c r="AH23" s="50"/>
+      <c r="AI23" s="50"/>
       <c r="AJ23" s="18"/>
       <c r="AK23" s="17"/>
-      <c r="AL23" s="41" t="s">
+      <c r="AL23" s="50" t="s">
         <v>12</v>
       </c>
-      <c r="AM23" s="41"/>
-      <c r="AN23" s="41"/>
-      <c r="AO23" s="41"/>
-      <c r="AP23" s="41"/>
-      <c r="AQ23" s="41"/>
-      <c r="AR23" s="41"/>
-      <c r="AS23" s="41"/>
-      <c r="AT23" s="41"/>
-      <c r="AU23" s="41"/>
-      <c r="AV23" s="41"/>
-      <c r="AW23" s="41"/>
-      <c r="AX23" s="41"/>
-      <c r="AY23" s="41"/>
-      <c r="AZ23" s="41"/>
+      <c r="AM23" s="50"/>
+      <c r="AN23" s="50"/>
+      <c r="AO23" s="50"/>
+      <c r="AP23" s="50"/>
+      <c r="AQ23" s="50"/>
+      <c r="AR23" s="50"/>
+      <c r="AS23" s="50"/>
+      <c r="AT23" s="50"/>
+      <c r="AU23" s="50"/>
+      <c r="AV23" s="50"/>
+      <c r="AW23" s="50"/>
+      <c r="AX23" s="50"/>
+      <c r="AY23" s="50"/>
+      <c r="AZ23" s="50"/>
       <c r="BA23" s="12"/>
       <c r="BB23" s="12"/>
       <c r="BC23" s="12"/>
@@ -2619,53 +2619,53 @@
       <c r="B24" s="37"/>
       <c r="D24" s="9"/>
       <c r="E24" s="18"/>
-      <c r="F24" s="46"/>
-      <c r="G24" s="46"/>
-      <c r="H24" s="46"/>
-      <c r="I24" s="46"/>
-      <c r="J24" s="46"/>
-      <c r="K24" s="46"/>
-      <c r="L24" s="46"/>
-      <c r="M24" s="46"/>
-      <c r="N24" s="46"/>
-      <c r="O24" s="46"/>
-      <c r="P24" s="46"/>
-      <c r="Q24" s="46"/>
-      <c r="R24" s="46"/>
-      <c r="S24" s="46"/>
-      <c r="T24" s="46"/>
-      <c r="U24" s="46"/>
-      <c r="V24" s="46"/>
-      <c r="W24" s="46"/>
-      <c r="X24" s="46"/>
-      <c r="Y24" s="46"/>
-      <c r="Z24" s="46"/>
-      <c r="AA24" s="46"/>
-      <c r="AB24" s="46"/>
-      <c r="AC24" s="46"/>
-      <c r="AD24" s="46"/>
-      <c r="AE24" s="46"/>
-      <c r="AF24" s="46"/>
-      <c r="AG24" s="46"/>
-      <c r="AH24" s="46"/>
-      <c r="AI24" s="46"/>
+      <c r="F24" s="48"/>
+      <c r="G24" s="48"/>
+      <c r="H24" s="48"/>
+      <c r="I24" s="48"/>
+      <c r="J24" s="48"/>
+      <c r="K24" s="48"/>
+      <c r="L24" s="48"/>
+      <c r="M24" s="48"/>
+      <c r="N24" s="48"/>
+      <c r="O24" s="48"/>
+      <c r="P24" s="48"/>
+      <c r="Q24" s="48"/>
+      <c r="R24" s="48"/>
+      <c r="S24" s="48"/>
+      <c r="T24" s="48"/>
+      <c r="U24" s="48"/>
+      <c r="V24" s="48"/>
+      <c r="W24" s="48"/>
+      <c r="X24" s="48"/>
+      <c r="Y24" s="48"/>
+      <c r="Z24" s="48"/>
+      <c r="AA24" s="48"/>
+      <c r="AB24" s="48"/>
+      <c r="AC24" s="48"/>
+      <c r="AD24" s="48"/>
+      <c r="AE24" s="48"/>
+      <c r="AF24" s="48"/>
+      <c r="AG24" s="48"/>
+      <c r="AH24" s="48"/>
+      <c r="AI24" s="48"/>
       <c r="AJ24" s="17"/>
       <c r="AK24" s="18"/>
-      <c r="AL24" s="46"/>
-      <c r="AM24" s="46"/>
-      <c r="AN24" s="46"/>
-      <c r="AO24" s="46"/>
-      <c r="AP24" s="46"/>
-      <c r="AQ24" s="46"/>
-      <c r="AR24" s="46"/>
-      <c r="AS24" s="46"/>
-      <c r="AT24" s="46"/>
-      <c r="AU24" s="46"/>
-      <c r="AV24" s="46"/>
-      <c r="AW24" s="46"/>
-      <c r="AX24" s="46"/>
-      <c r="AY24" s="46"/>
-      <c r="AZ24" s="46"/>
+      <c r="AL24" s="48"/>
+      <c r="AM24" s="48"/>
+      <c r="AN24" s="48"/>
+      <c r="AO24" s="48"/>
+      <c r="AP24" s="48"/>
+      <c r="AQ24" s="48"/>
+      <c r="AR24" s="48"/>
+      <c r="AS24" s="48"/>
+      <c r="AT24" s="48"/>
+      <c r="AU24" s="48"/>
+      <c r="AV24" s="48"/>
+      <c r="AW24" s="48"/>
+      <c r="AX24" s="48"/>
+      <c r="AY24" s="48"/>
+      <c r="AZ24" s="48"/>
       <c r="BA24" s="12"/>
       <c r="BB24" s="12"/>
       <c r="BC24" s="12"/>
@@ -2834,14 +2834,14 @@
         <v>18</v>
       </c>
       <c r="E28" s="17"/>
-      <c r="F28" s="41" t="s">
+      <c r="F28" s="50" t="s">
         <v>13</v>
       </c>
-      <c r="G28" s="41"/>
-      <c r="H28" s="41"/>
-      <c r="I28" s="41"/>
-      <c r="J28" s="41"/>
-      <c r="K28" s="41"/>
+      <c r="G28" s="50"/>
+      <c r="H28" s="50"/>
+      <c r="I28" s="50"/>
+      <c r="J28" s="50"/>
+      <c r="K28" s="50"/>
       <c r="L28" s="18"/>
       <c r="M28" s="19"/>
       <c r="N28" s="19"/>
@@ -2860,24 +2860,24 @@
       <c r="AA28" s="19"/>
       <c r="AB28" s="19"/>
       <c r="AC28" s="17"/>
-      <c r="AD28" s="41" t="s">
+      <c r="AD28" s="50" t="s">
         <v>14</v>
       </c>
-      <c r="AE28" s="41"/>
-      <c r="AF28" s="41"/>
+      <c r="AE28" s="50"/>
+      <c r="AF28" s="50"/>
       <c r="AG28" s="18"/>
       <c r="AH28" s="19"/>
       <c r="AI28" s="19"/>
       <c r="AJ28" s="19"/>
       <c r="AK28" s="17"/>
-      <c r="AL28" s="41" t="s">
+      <c r="AL28" s="50" t="s">
         <v>13</v>
       </c>
-      <c r="AM28" s="41"/>
-      <c r="AN28" s="41"/>
-      <c r="AO28" s="41"/>
-      <c r="AP28" s="41"/>
-      <c r="AQ28" s="41"/>
+      <c r="AM28" s="50"/>
+      <c r="AN28" s="50"/>
+      <c r="AO28" s="50"/>
+      <c r="AP28" s="50"/>
+      <c r="AQ28" s="50"/>
       <c r="AR28" s="18"/>
       <c r="AS28" s="19"/>
       <c r="AT28" s="19"/>
@@ -2894,12 +2894,12 @@
     <row r="29" spans="2:55" ht="17.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.65">
       <c r="B29" s="37"/>
       <c r="E29" s="18"/>
-      <c r="F29" s="46"/>
-      <c r="G29" s="46"/>
-      <c r="H29" s="46"/>
-      <c r="I29" s="46"/>
-      <c r="J29" s="46"/>
-      <c r="K29" s="46"/>
+      <c r="F29" s="48"/>
+      <c r="G29" s="48"/>
+      <c r="H29" s="48"/>
+      <c r="I29" s="48"/>
+      <c r="J29" s="48"/>
+      <c r="K29" s="48"/>
       <c r="L29" s="17"/>
       <c r="M29" s="12"/>
       <c r="N29" s="12"/>
@@ -2918,20 +2918,20 @@
       <c r="AA29" s="12"/>
       <c r="AB29" s="12"/>
       <c r="AC29" s="18"/>
-      <c r="AD29" s="46"/>
-      <c r="AE29" s="46"/>
-      <c r="AF29" s="46"/>
+      <c r="AD29" s="48"/>
+      <c r="AE29" s="48"/>
+      <c r="AF29" s="48"/>
       <c r="AG29" s="17"/>
       <c r="AH29" s="12"/>
       <c r="AI29" s="12"/>
       <c r="AJ29" s="12"/>
       <c r="AK29" s="18"/>
-      <c r="AL29" s="46"/>
-      <c r="AM29" s="46"/>
-      <c r="AN29" s="46"/>
-      <c r="AO29" s="46"/>
-      <c r="AP29" s="46"/>
-      <c r="AQ29" s="46"/>
+      <c r="AL29" s="48"/>
+      <c r="AM29" s="48"/>
+      <c r="AN29" s="48"/>
+      <c r="AO29" s="48"/>
+      <c r="AP29" s="48"/>
+      <c r="AQ29" s="48"/>
       <c r="AR29" s="17"/>
       <c r="AS29" s="12"/>
       <c r="AT29" s="12"/>
@@ -3418,31 +3418,31 @@
     <row r="42" spans="2:55" ht="17.5" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="43" spans="2:55" ht="17.5" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="44" spans="2:55" ht="17.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B44" s="47" t="s">
-        <v>25</v>
+      <c r="B44" s="78" t="s">
+        <v>28</v>
       </c>
       <c r="AA44" s="5"/>
       <c r="AB44" s="5"/>
     </row>
     <row r="45" spans="2:55" ht="17.5" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="B45" s="48"/>
+      <c r="B45" s="39"/>
       <c r="W45" s="35"/>
       <c r="X45" s="35"/>
       <c r="Y45" s="35"/>
       <c r="Z45" s="30"/>
-      <c r="AA45" s="41" t="s">
-        <v>24</v>
-      </c>
-      <c r="AB45" s="41"/>
-      <c r="AC45" s="41"/>
-      <c r="AD45" s="42"/>
+      <c r="AA45" s="50" t="s">
+        <v>29</v>
+      </c>
+      <c r="AB45" s="50"/>
+      <c r="AC45" s="50"/>
+      <c r="AD45" s="74"/>
       <c r="AE45" s="22"/>
       <c r="AF45" s="12"/>
       <c r="AG45" s="12"/>
       <c r="AH45" s="12"/>
     </row>
     <row r="46" spans="2:55" ht="17.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.65">
-      <c r="B46" s="48"/>
+      <c r="B46" s="39"/>
       <c r="E46" s="5"/>
       <c r="F46" s="5"/>
       <c r="G46" s="5"/>
@@ -3465,10 +3465,10 @@
       <c r="X46" s="29"/>
       <c r="Y46" s="29"/>
       <c r="Z46" s="31"/>
-      <c r="AA46" s="44"/>
-      <c r="AB46" s="44"/>
-      <c r="AC46" s="44"/>
-      <c r="AD46" s="45"/>
+      <c r="AA46" s="76"/>
+      <c r="AB46" s="76"/>
+      <c r="AC46" s="76"/>
+      <c r="AD46" s="77"/>
       <c r="AE46" s="21"/>
       <c r="AF46" s="16"/>
       <c r="AG46" s="16"/>
@@ -3493,7 +3493,7 @@
       <c r="AZ46" s="5"/>
     </row>
     <row r="47" spans="2:55" ht="17.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B47" s="48"/>
+      <c r="B47" s="39"/>
     </row>
     <row r="48" spans="2:55" ht="17.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B48" s="11"/>
@@ -3503,19 +3503,19 @@
       <c r="Z49" s="5"/>
     </row>
     <row r="50" spans="2:52" ht="17.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B50" s="47" t="s">
-        <v>26</v>
-      </c>
-      <c r="W50" s="40" t="s">
+      <c r="B50" s="78" t="s">
+        <v>24</v>
+      </c>
+      <c r="W50" s="73" t="s">
         <v>23</v>
       </c>
-      <c r="X50" s="41"/>
-      <c r="Y50" s="41"/>
-      <c r="Z50" s="42"/>
+      <c r="X50" s="50"/>
+      <c r="Y50" s="50"/>
+      <c r="Z50" s="74"/>
       <c r="AA50" s="2"/>
     </row>
     <row r="51" spans="2:52" ht="17.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B51" s="48"/>
+      <c r="B51" s="39"/>
       <c r="E51" s="5"/>
       <c r="F51" s="5"/>
       <c r="G51" s="5"/>
@@ -3534,10 +3534,10 @@
       <c r="T51" s="5"/>
       <c r="U51" s="5"/>
       <c r="V51" s="8"/>
-      <c r="W51" s="43"/>
-      <c r="X51" s="44"/>
-      <c r="Y51" s="44"/>
-      <c r="Z51" s="45"/>
+      <c r="W51" s="75"/>
+      <c r="X51" s="76"/>
+      <c r="Y51" s="76"/>
+      <c r="Z51" s="77"/>
       <c r="AA51" s="7"/>
       <c r="AB51" s="5"/>
       <c r="AC51" s="5"/>
@@ -3566,10 +3566,10 @@
       <c r="AZ51" s="5"/>
     </row>
     <row r="52" spans="2:52" ht="17.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B52" s="48"/>
+      <c r="B52" s="39"/>
     </row>
     <row r="53" spans="2:52" ht="17.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B53" s="48"/>
+      <c r="B53" s="39"/>
     </row>
     <row r="54" spans="2:52" ht="17.5" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="55" spans="2:52" ht="17.5" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -3589,124 +3589,124 @@
       <c r="X57" s="5"/>
     </row>
     <row r="58" spans="2:52" ht="17.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B58" s="55" t="s">
-        <v>28</v>
-      </c>
-      <c r="E58" s="49" t="s">
+      <c r="B58" s="60" t="s">
+        <v>26</v>
+      </c>
+      <c r="E58" s="54" t="s">
         <v>3</v>
       </c>
-      <c r="F58" s="65"/>
-      <c r="G58" s="65"/>
-      <c r="H58" s="65"/>
-      <c r="I58" s="65"/>
-      <c r="J58" s="65"/>
-      <c r="K58" s="65"/>
-      <c r="L58" s="65"/>
-      <c r="M58" s="65"/>
-      <c r="N58" s="65"/>
-      <c r="O58" s="65"/>
-      <c r="P58" s="65"/>
-      <c r="Q58" s="65"/>
-      <c r="R58" s="65"/>
-      <c r="S58" s="65"/>
-      <c r="T58" s="65"/>
-      <c r="U58" s="65"/>
-      <c r="V58" s="65"/>
-      <c r="W58" s="65"/>
-      <c r="X58" s="66"/>
-      <c r="Y58" s="49" t="s">
+      <c r="F58" s="64"/>
+      <c r="G58" s="64"/>
+      <c r="H58" s="64"/>
+      <c r="I58" s="64"/>
+      <c r="J58" s="64"/>
+      <c r="K58" s="64"/>
+      <c r="L58" s="64"/>
+      <c r="M58" s="64"/>
+      <c r="N58" s="64"/>
+      <c r="O58" s="64"/>
+      <c r="P58" s="64"/>
+      <c r="Q58" s="64"/>
+      <c r="R58" s="64"/>
+      <c r="S58" s="64"/>
+      <c r="T58" s="64"/>
+      <c r="U58" s="64"/>
+      <c r="V58" s="64"/>
+      <c r="W58" s="64"/>
+      <c r="X58" s="65"/>
+      <c r="Y58" s="54" t="s">
         <v>6</v>
       </c>
-      <c r="Z58" s="50"/>
-      <c r="AA58" s="50"/>
-      <c r="AB58" s="50"/>
-      <c r="AC58" s="50"/>
-      <c r="AD58" s="50"/>
-      <c r="AE58" s="50"/>
-      <c r="AF58" s="51"/>
-      <c r="AG58" s="49" t="s">
+      <c r="Z58" s="55"/>
+      <c r="AA58" s="55"/>
+      <c r="AB58" s="55"/>
+      <c r="AC58" s="55"/>
+      <c r="AD58" s="55"/>
+      <c r="AE58" s="55"/>
+      <c r="AF58" s="56"/>
+      <c r="AG58" s="54" t="s">
         <v>4</v>
       </c>
-      <c r="AH58" s="50"/>
-      <c r="AI58" s="50"/>
-      <c r="AJ58" s="50"/>
-      <c r="AK58" s="50"/>
-      <c r="AL58" s="50"/>
-      <c r="AM58" s="50"/>
-      <c r="AN58" s="51"/>
-      <c r="AO58" s="49" t="s">
+      <c r="AH58" s="55"/>
+      <c r="AI58" s="55"/>
+      <c r="AJ58" s="55"/>
+      <c r="AK58" s="55"/>
+      <c r="AL58" s="55"/>
+      <c r="AM58" s="55"/>
+      <c r="AN58" s="56"/>
+      <c r="AO58" s="54" t="s">
         <v>5</v>
       </c>
-      <c r="AP58" s="50"/>
-      <c r="AQ58" s="50"/>
-      <c r="AR58" s="50"/>
-      <c r="AS58" s="50"/>
-      <c r="AT58" s="50"/>
-      <c r="AU58" s="50"/>
-      <c r="AV58" s="51"/>
-      <c r="AW58" s="49" t="s">
+      <c r="AP58" s="55"/>
+      <c r="AQ58" s="55"/>
+      <c r="AR58" s="55"/>
+      <c r="AS58" s="55"/>
+      <c r="AT58" s="55"/>
+      <c r="AU58" s="55"/>
+      <c r="AV58" s="56"/>
+      <c r="AW58" s="54" t="s">
         <v>3</v>
       </c>
-      <c r="AX58" s="50"/>
-      <c r="AY58" s="50"/>
-      <c r="AZ58" s="50"/>
+      <c r="AX58" s="55"/>
+      <c r="AY58" s="55"/>
+      <c r="AZ58" s="55"/>
     </row>
     <row r="59" spans="2:52" ht="17.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B59" s="56"/>
-      <c r="E59" s="67"/>
-      <c r="F59" s="68"/>
-      <c r="G59" s="68"/>
-      <c r="H59" s="68"/>
-      <c r="I59" s="68"/>
-      <c r="J59" s="68"/>
-      <c r="K59" s="68"/>
-      <c r="L59" s="68"/>
-      <c r="M59" s="68"/>
-      <c r="N59" s="68"/>
-      <c r="O59" s="68"/>
-      <c r="P59" s="68"/>
-      <c r="Q59" s="68"/>
-      <c r="R59" s="68"/>
-      <c r="S59" s="68"/>
-      <c r="T59" s="68"/>
-      <c r="U59" s="68"/>
-      <c r="V59" s="68"/>
-      <c r="W59" s="68"/>
-      <c r="X59" s="69"/>
-      <c r="Y59" s="52"/>
-      <c r="Z59" s="53"/>
-      <c r="AA59" s="53"/>
-      <c r="AB59" s="53"/>
-      <c r="AC59" s="53"/>
-      <c r="AD59" s="53"/>
-      <c r="AE59" s="53"/>
-      <c r="AF59" s="54"/>
-      <c r="AG59" s="52"/>
-      <c r="AH59" s="53"/>
-      <c r="AI59" s="53"/>
-      <c r="AJ59" s="53"/>
-      <c r="AK59" s="53"/>
-      <c r="AL59" s="53"/>
-      <c r="AM59" s="53"/>
-      <c r="AN59" s="54"/>
-      <c r="AO59" s="52"/>
-      <c r="AP59" s="53"/>
-      <c r="AQ59" s="53"/>
-      <c r="AR59" s="53"/>
-      <c r="AS59" s="53"/>
-      <c r="AT59" s="53"/>
-      <c r="AU59" s="53"/>
-      <c r="AV59" s="54"/>
-      <c r="AW59" s="52"/>
-      <c r="AX59" s="53"/>
-      <c r="AY59" s="53"/>
-      <c r="AZ59" s="53"/>
+      <c r="B59" s="69"/>
+      <c r="E59" s="66"/>
+      <c r="F59" s="67"/>
+      <c r="G59" s="67"/>
+      <c r="H59" s="67"/>
+      <c r="I59" s="67"/>
+      <c r="J59" s="67"/>
+      <c r="K59" s="67"/>
+      <c r="L59" s="67"/>
+      <c r="M59" s="67"/>
+      <c r="N59" s="67"/>
+      <c r="O59" s="67"/>
+      <c r="P59" s="67"/>
+      <c r="Q59" s="67"/>
+      <c r="R59" s="67"/>
+      <c r="S59" s="67"/>
+      <c r="T59" s="67"/>
+      <c r="U59" s="67"/>
+      <c r="V59" s="67"/>
+      <c r="W59" s="67"/>
+      <c r="X59" s="68"/>
+      <c r="Y59" s="57"/>
+      <c r="Z59" s="58"/>
+      <c r="AA59" s="58"/>
+      <c r="AB59" s="58"/>
+      <c r="AC59" s="58"/>
+      <c r="AD59" s="58"/>
+      <c r="AE59" s="58"/>
+      <c r="AF59" s="59"/>
+      <c r="AG59" s="57"/>
+      <c r="AH59" s="58"/>
+      <c r="AI59" s="58"/>
+      <c r="AJ59" s="58"/>
+      <c r="AK59" s="58"/>
+      <c r="AL59" s="58"/>
+      <c r="AM59" s="58"/>
+      <c r="AN59" s="59"/>
+      <c r="AO59" s="57"/>
+      <c r="AP59" s="58"/>
+      <c r="AQ59" s="58"/>
+      <c r="AR59" s="58"/>
+      <c r="AS59" s="58"/>
+      <c r="AT59" s="58"/>
+      <c r="AU59" s="58"/>
+      <c r="AV59" s="59"/>
+      <c r="AW59" s="57"/>
+      <c r="AX59" s="58"/>
+      <c r="AY59" s="58"/>
+      <c r="AZ59" s="58"/>
     </row>
     <row r="60" spans="2:52" ht="17.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B60" s="56"/>
+      <c r="B60" s="69"/>
     </row>
     <row r="61" spans="2:52" ht="17.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B61" s="57"/>
+      <c r="B61" s="70"/>
     </row>
     <row r="62" spans="2:52" ht="17.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B62" s="11"/>
@@ -3917,57 +3917,57 @@
       <c r="C73" s="12"/>
       <c r="D73" s="12"/>
       <c r="E73" s="17"/>
-      <c r="F73" s="41" t="s">
+      <c r="F73" s="50" t="s">
         <v>12</v>
       </c>
-      <c r="G73" s="41"/>
-      <c r="H73" s="41"/>
-      <c r="I73" s="41"/>
-      <c r="J73" s="41"/>
-      <c r="K73" s="41"/>
-      <c r="L73" s="41"/>
-      <c r="M73" s="41"/>
-      <c r="N73" s="41"/>
-      <c r="O73" s="41"/>
-      <c r="P73" s="41"/>
-      <c r="Q73" s="41"/>
-      <c r="R73" s="41"/>
-      <c r="S73" s="41"/>
-      <c r="T73" s="41"/>
-      <c r="U73" s="41"/>
-      <c r="V73" s="41"/>
-      <c r="W73" s="41"/>
-      <c r="X73" s="41"/>
-      <c r="Y73" s="41"/>
-      <c r="Z73" s="41"/>
-      <c r="AA73" s="41"/>
-      <c r="AB73" s="41"/>
-      <c r="AC73" s="41"/>
-      <c r="AD73" s="41"/>
-      <c r="AE73" s="41"/>
-      <c r="AF73" s="41"/>
-      <c r="AG73" s="41"/>
-      <c r="AH73" s="41"/>
-      <c r="AI73" s="41"/>
-      <c r="AJ73" s="41"/>
-      <c r="AK73" s="41"/>
-      <c r="AL73" s="41"/>
-      <c r="AM73" s="41"/>
-      <c r="AN73" s="41"/>
-      <c r="AO73" s="41"/>
-      <c r="AP73" s="41"/>
-      <c r="AQ73" s="41"/>
-      <c r="AR73" s="41"/>
-      <c r="AS73" s="41"/>
-      <c r="AT73" s="41"/>
-      <c r="AU73" s="41"/>
+      <c r="G73" s="50"/>
+      <c r="H73" s="50"/>
+      <c r="I73" s="50"/>
+      <c r="J73" s="50"/>
+      <c r="K73" s="50"/>
+      <c r="L73" s="50"/>
+      <c r="M73" s="50"/>
+      <c r="N73" s="50"/>
+      <c r="O73" s="50"/>
+      <c r="P73" s="50"/>
+      <c r="Q73" s="50"/>
+      <c r="R73" s="50"/>
+      <c r="S73" s="50"/>
+      <c r="T73" s="50"/>
+      <c r="U73" s="50"/>
+      <c r="V73" s="50"/>
+      <c r="W73" s="50"/>
+      <c r="X73" s="50"/>
+      <c r="Y73" s="50"/>
+      <c r="Z73" s="50"/>
+      <c r="AA73" s="50"/>
+      <c r="AB73" s="50"/>
+      <c r="AC73" s="50"/>
+      <c r="AD73" s="50"/>
+      <c r="AE73" s="50"/>
+      <c r="AF73" s="50"/>
+      <c r="AG73" s="50"/>
+      <c r="AH73" s="50"/>
+      <c r="AI73" s="50"/>
+      <c r="AJ73" s="50"/>
+      <c r="AK73" s="50"/>
+      <c r="AL73" s="50"/>
+      <c r="AM73" s="50"/>
+      <c r="AN73" s="50"/>
+      <c r="AO73" s="50"/>
+      <c r="AP73" s="50"/>
+      <c r="AQ73" s="50"/>
+      <c r="AR73" s="50"/>
+      <c r="AS73" s="50"/>
+      <c r="AT73" s="50"/>
+      <c r="AU73" s="50"/>
       <c r="AV73" s="18"/>
       <c r="AW73" s="17"/>
-      <c r="AX73" s="58" t="s">
+      <c r="AX73" s="52" t="s">
         <v>12</v>
       </c>
-      <c r="AY73" s="58"/>
-      <c r="AZ73" s="58"/>
+      <c r="AY73" s="52"/>
+      <c r="AZ73" s="52"/>
       <c r="BA73" s="12"/>
       <c r="BB73" s="12"/>
     </row>
@@ -3976,53 +3976,53 @@
       <c r="C74" s="12"/>
       <c r="D74" s="12"/>
       <c r="E74" s="18"/>
-      <c r="F74" s="46"/>
-      <c r="G74" s="46"/>
-      <c r="H74" s="46"/>
-      <c r="I74" s="46"/>
-      <c r="J74" s="46"/>
-      <c r="K74" s="46"/>
-      <c r="L74" s="46"/>
-      <c r="M74" s="46"/>
-      <c r="N74" s="46"/>
-      <c r="O74" s="46"/>
-      <c r="P74" s="46"/>
-      <c r="Q74" s="46"/>
-      <c r="R74" s="46"/>
-      <c r="S74" s="46"/>
-      <c r="T74" s="46"/>
-      <c r="U74" s="46"/>
-      <c r="V74" s="46"/>
-      <c r="W74" s="46"/>
-      <c r="X74" s="46"/>
-      <c r="Y74" s="46"/>
-      <c r="Z74" s="46"/>
-      <c r="AA74" s="46"/>
-      <c r="AB74" s="46"/>
-      <c r="AC74" s="46"/>
-      <c r="AD74" s="46"/>
-      <c r="AE74" s="46"/>
-      <c r="AF74" s="46"/>
-      <c r="AG74" s="46"/>
-      <c r="AH74" s="46"/>
-      <c r="AI74" s="46"/>
-      <c r="AJ74" s="46"/>
-      <c r="AK74" s="46"/>
-      <c r="AL74" s="46"/>
-      <c r="AM74" s="46"/>
-      <c r="AN74" s="46"/>
-      <c r="AO74" s="46"/>
-      <c r="AP74" s="46"/>
-      <c r="AQ74" s="46"/>
-      <c r="AR74" s="46"/>
-      <c r="AS74" s="46"/>
-      <c r="AT74" s="46"/>
-      <c r="AU74" s="46"/>
+      <c r="F74" s="48"/>
+      <c r="G74" s="48"/>
+      <c r="H74" s="48"/>
+      <c r="I74" s="48"/>
+      <c r="J74" s="48"/>
+      <c r="K74" s="48"/>
+      <c r="L74" s="48"/>
+      <c r="M74" s="48"/>
+      <c r="N74" s="48"/>
+      <c r="O74" s="48"/>
+      <c r="P74" s="48"/>
+      <c r="Q74" s="48"/>
+      <c r="R74" s="48"/>
+      <c r="S74" s="48"/>
+      <c r="T74" s="48"/>
+      <c r="U74" s="48"/>
+      <c r="V74" s="48"/>
+      <c r="W74" s="48"/>
+      <c r="X74" s="48"/>
+      <c r="Y74" s="48"/>
+      <c r="Z74" s="48"/>
+      <c r="AA74" s="48"/>
+      <c r="AB74" s="48"/>
+      <c r="AC74" s="48"/>
+      <c r="AD74" s="48"/>
+      <c r="AE74" s="48"/>
+      <c r="AF74" s="48"/>
+      <c r="AG74" s="48"/>
+      <c r="AH74" s="48"/>
+      <c r="AI74" s="48"/>
+      <c r="AJ74" s="48"/>
+      <c r="AK74" s="48"/>
+      <c r="AL74" s="48"/>
+      <c r="AM74" s="48"/>
+      <c r="AN74" s="48"/>
+      <c r="AO74" s="48"/>
+      <c r="AP74" s="48"/>
+      <c r="AQ74" s="48"/>
+      <c r="AR74" s="48"/>
+      <c r="AS74" s="48"/>
+      <c r="AT74" s="48"/>
+      <c r="AU74" s="48"/>
       <c r="AV74" s="17"/>
       <c r="AW74" s="18"/>
-      <c r="AX74" s="59"/>
-      <c r="AY74" s="59"/>
-      <c r="AZ74" s="59"/>
+      <c r="AX74" s="53"/>
+      <c r="AY74" s="53"/>
+      <c r="AZ74" s="53"/>
       <c r="BA74" s="12"/>
       <c r="BB74" s="12"/>
     </row>
@@ -4195,61 +4195,61 @@
       <c r="C78" s="12"/>
       <c r="D78" s="12"/>
       <c r="E78" s="17"/>
-      <c r="F78" s="41" t="s">
+      <c r="F78" s="50" t="s">
         <v>13</v>
       </c>
-      <c r="G78" s="41"/>
-      <c r="H78" s="41"/>
-      <c r="I78" s="41"/>
-      <c r="J78" s="41"/>
-      <c r="K78" s="41"/>
-      <c r="L78" s="41"/>
-      <c r="M78" s="41"/>
-      <c r="N78" s="41"/>
-      <c r="O78" s="41"/>
-      <c r="P78" s="41"/>
-      <c r="Q78" s="41"/>
-      <c r="R78" s="41"/>
-      <c r="S78" s="41"/>
-      <c r="T78" s="41"/>
-      <c r="U78" s="41"/>
-      <c r="V78" s="41"/>
-      <c r="W78" s="41"/>
+      <c r="G78" s="50"/>
+      <c r="H78" s="50"/>
+      <c r="I78" s="50"/>
+      <c r="J78" s="50"/>
+      <c r="K78" s="50"/>
+      <c r="L78" s="50"/>
+      <c r="M78" s="50"/>
+      <c r="N78" s="50"/>
+      <c r="O78" s="50"/>
+      <c r="P78" s="50"/>
+      <c r="Q78" s="50"/>
+      <c r="R78" s="50"/>
+      <c r="S78" s="50"/>
+      <c r="T78" s="50"/>
+      <c r="U78" s="50"/>
+      <c r="V78" s="50"/>
+      <c r="W78" s="50"/>
       <c r="X78" s="18"/>
       <c r="Y78" s="23"/>
-      <c r="Z78" s="61" t="s">
+      <c r="Z78" s="45" t="s">
         <v>15</v>
       </c>
-      <c r="AA78" s="61"/>
-      <c r="AB78" s="61"/>
-      <c r="AC78" s="61"/>
-      <c r="AD78" s="61"/>
-      <c r="AE78" s="61"/>
-      <c r="AF78" s="61"/>
-      <c r="AG78" s="61"/>
-      <c r="AH78" s="61"/>
-      <c r="AI78" s="61"/>
-      <c r="AJ78" s="61"/>
-      <c r="AK78" s="61"/>
-      <c r="AL78" s="61"/>
-      <c r="AM78" s="61"/>
-      <c r="AN78" s="61"/>
+      <c r="AA78" s="45"/>
+      <c r="AB78" s="45"/>
+      <c r="AC78" s="45"/>
+      <c r="AD78" s="45"/>
+      <c r="AE78" s="45"/>
+      <c r="AF78" s="45"/>
+      <c r="AG78" s="45"/>
+      <c r="AH78" s="45"/>
+      <c r="AI78" s="45"/>
+      <c r="AJ78" s="45"/>
+      <c r="AK78" s="45"/>
+      <c r="AL78" s="45"/>
+      <c r="AM78" s="45"/>
+      <c r="AN78" s="45"/>
       <c r="AO78" s="17"/>
-      <c r="AP78" s="41" t="s">
+      <c r="AP78" s="50" t="s">
         <v>14</v>
       </c>
-      <c r="AQ78" s="41"/>
-      <c r="AR78" s="41"/>
+      <c r="AQ78" s="50"/>
+      <c r="AR78" s="50"/>
       <c r="AS78" s="18"/>
       <c r="AT78" s="19"/>
       <c r="AU78" s="19"/>
       <c r="AV78" s="19"/>
       <c r="AW78" s="17"/>
-      <c r="AX78" s="58" t="s">
+      <c r="AX78" s="52" t="s">
         <v>13</v>
       </c>
-      <c r="AY78" s="58"/>
-      <c r="AZ78" s="58"/>
+      <c r="AY78" s="52"/>
+      <c r="AZ78" s="52"/>
       <c r="BA78" s="12"/>
       <c r="BB78" s="12"/>
     </row>
@@ -4258,53 +4258,53 @@
       <c r="C79" s="12"/>
       <c r="D79" s="12"/>
       <c r="E79" s="18"/>
-      <c r="F79" s="46"/>
-      <c r="G79" s="46"/>
-      <c r="H79" s="46"/>
-      <c r="I79" s="46"/>
-      <c r="J79" s="46"/>
-      <c r="K79" s="46"/>
-      <c r="L79" s="46"/>
-      <c r="M79" s="46"/>
-      <c r="N79" s="46"/>
-      <c r="O79" s="46"/>
-      <c r="P79" s="46"/>
-      <c r="Q79" s="46"/>
-      <c r="R79" s="46"/>
-      <c r="S79" s="46"/>
-      <c r="T79" s="46"/>
-      <c r="U79" s="46"/>
-      <c r="V79" s="46"/>
-      <c r="W79" s="46"/>
+      <c r="F79" s="48"/>
+      <c r="G79" s="48"/>
+      <c r="H79" s="48"/>
+      <c r="I79" s="48"/>
+      <c r="J79" s="48"/>
+      <c r="K79" s="48"/>
+      <c r="L79" s="48"/>
+      <c r="M79" s="48"/>
+      <c r="N79" s="48"/>
+      <c r="O79" s="48"/>
+      <c r="P79" s="48"/>
+      <c r="Q79" s="48"/>
+      <c r="R79" s="48"/>
+      <c r="S79" s="48"/>
+      <c r="T79" s="48"/>
+      <c r="U79" s="48"/>
+      <c r="V79" s="48"/>
+      <c r="W79" s="48"/>
       <c r="X79" s="17"/>
       <c r="Y79" s="24"/>
-      <c r="Z79" s="70"/>
-      <c r="AA79" s="70"/>
-      <c r="AB79" s="70"/>
-      <c r="AC79" s="70"/>
-      <c r="AD79" s="70"/>
-      <c r="AE79" s="70"/>
-      <c r="AF79" s="70"/>
-      <c r="AG79" s="70"/>
-      <c r="AH79" s="70"/>
-      <c r="AI79" s="70"/>
-      <c r="AJ79" s="70"/>
-      <c r="AK79" s="70"/>
-      <c r="AL79" s="70"/>
-      <c r="AM79" s="70"/>
-      <c r="AN79" s="70"/>
+      <c r="Z79" s="51"/>
+      <c r="AA79" s="51"/>
+      <c r="AB79" s="51"/>
+      <c r="AC79" s="51"/>
+      <c r="AD79" s="51"/>
+      <c r="AE79" s="51"/>
+      <c r="AF79" s="51"/>
+      <c r="AG79" s="51"/>
+      <c r="AH79" s="51"/>
+      <c r="AI79" s="51"/>
+      <c r="AJ79" s="51"/>
+      <c r="AK79" s="51"/>
+      <c r="AL79" s="51"/>
+      <c r="AM79" s="51"/>
+      <c r="AN79" s="51"/>
       <c r="AO79" s="25"/>
-      <c r="AP79" s="46"/>
-      <c r="AQ79" s="46"/>
-      <c r="AR79" s="46"/>
+      <c r="AP79" s="48"/>
+      <c r="AQ79" s="48"/>
+      <c r="AR79" s="48"/>
       <c r="AS79" s="17"/>
       <c r="AT79" s="12"/>
       <c r="AU79" s="12"/>
       <c r="AV79" s="12"/>
       <c r="AW79" s="18"/>
-      <c r="AX79" s="59"/>
-      <c r="AY79" s="59"/>
-      <c r="AZ79" s="59"/>
+      <c r="AX79" s="53"/>
+      <c r="AY79" s="53"/>
+      <c r="AZ79" s="53"/>
       <c r="BA79" s="12"/>
       <c r="BB79" s="12"/>
     </row>
@@ -4775,27 +4775,27 @@
       <c r="Y88" s="12"/>
       <c r="Z88" s="12"/>
       <c r="AA88" s="27"/>
-      <c r="AB88" s="60" t="s">
+      <c r="AB88" s="44" t="s">
         <v>16</v>
       </c>
-      <c r="AC88" s="61"/>
-      <c r="AD88" s="61"/>
-      <c r="AE88" s="62"/>
-      <c r="AF88" s="74" t="s">
+      <c r="AC88" s="45"/>
+      <c r="AD88" s="45"/>
+      <c r="AE88" s="46"/>
+      <c r="AF88" s="38" t="s">
         <v>17</v>
       </c>
-      <c r="AG88" s="48"/>
-      <c r="AH88" s="48"/>
-      <c r="AI88" s="48"/>
-      <c r="AJ88" s="48"/>
-      <c r="AK88" s="48"/>
-      <c r="AL88" s="48"/>
-      <c r="AM88" s="48"/>
-      <c r="AN88" s="48"/>
-      <c r="AO88" s="48"/>
-      <c r="AP88" s="48"/>
-      <c r="AQ88" s="48"/>
-      <c r="AR88" s="75"/>
+      <c r="AG88" s="39"/>
+      <c r="AH88" s="39"/>
+      <c r="AI88" s="39"/>
+      <c r="AJ88" s="39"/>
+      <c r="AK88" s="39"/>
+      <c r="AL88" s="39"/>
+      <c r="AM88" s="39"/>
+      <c r="AN88" s="39"/>
+      <c r="AO88" s="39"/>
+      <c r="AP88" s="39"/>
+      <c r="AQ88" s="39"/>
+      <c r="AR88" s="40"/>
       <c r="AS88" s="33"/>
       <c r="AT88" s="32"/>
       <c r="AU88" s="27"/>
@@ -4835,23 +4835,23 @@
       <c r="Y89" s="12"/>
       <c r="Z89" s="12"/>
       <c r="AA89" s="12"/>
-      <c r="AB89" s="63"/>
-      <c r="AC89" s="46"/>
-      <c r="AD89" s="46"/>
-      <c r="AE89" s="64"/>
-      <c r="AF89" s="76"/>
-      <c r="AG89" s="77"/>
-      <c r="AH89" s="77"/>
-      <c r="AI89" s="77"/>
-      <c r="AJ89" s="77"/>
-      <c r="AK89" s="77"/>
-      <c r="AL89" s="77"/>
-      <c r="AM89" s="77"/>
-      <c r="AN89" s="77"/>
-      <c r="AO89" s="77"/>
-      <c r="AP89" s="77"/>
-      <c r="AQ89" s="77"/>
-      <c r="AR89" s="78"/>
+      <c r="AB89" s="47"/>
+      <c r="AC89" s="48"/>
+      <c r="AD89" s="48"/>
+      <c r="AE89" s="49"/>
+      <c r="AF89" s="41"/>
+      <c r="AG89" s="42"/>
+      <c r="AH89" s="42"/>
+      <c r="AI89" s="42"/>
+      <c r="AJ89" s="42"/>
+      <c r="AK89" s="42"/>
+      <c r="AL89" s="42"/>
+      <c r="AM89" s="42"/>
+      <c r="AN89" s="42"/>
+      <c r="AO89" s="42"/>
+      <c r="AP89" s="42"/>
+      <c r="AQ89" s="42"/>
+      <c r="AR89" s="43"/>
       <c r="AS89" s="35"/>
       <c r="AT89" s="35"/>
       <c r="AU89" s="12"/>
@@ -4871,100 +4871,100 @@
     <row r="93" spans="2:56" ht="17.5" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="94" spans="2:56" ht="17.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4"/>
     <row r="95" spans="2:56" ht="17.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B95" s="55" t="s">
-        <v>29</v>
-      </c>
-      <c r="Q95" s="49" t="s">
+      <c r="B95" s="60" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q95" s="54" t="s">
         <v>3</v>
       </c>
-      <c r="R95" s="50"/>
-      <c r="S95" s="50"/>
-      <c r="T95" s="50"/>
-      <c r="U95" s="50"/>
-      <c r="V95" s="50"/>
-      <c r="W95" s="50"/>
-      <c r="X95" s="51"/>
-      <c r="Y95" s="49" t="s">
+      <c r="R95" s="55"/>
+      <c r="S95" s="55"/>
+      <c r="T95" s="55"/>
+      <c r="U95" s="55"/>
+      <c r="V95" s="55"/>
+      <c r="W95" s="55"/>
+      <c r="X95" s="56"/>
+      <c r="Y95" s="54" t="s">
         <v>6</v>
       </c>
-      <c r="Z95" s="50"/>
-      <c r="AA95" s="50"/>
-      <c r="AB95" s="50"/>
-      <c r="AC95" s="50"/>
-      <c r="AD95" s="50"/>
-      <c r="AE95" s="50"/>
-      <c r="AF95" s="51"/>
-      <c r="AG95" s="49" t="s">
+      <c r="Z95" s="55"/>
+      <c r="AA95" s="55"/>
+      <c r="AB95" s="55"/>
+      <c r="AC95" s="55"/>
+      <c r="AD95" s="55"/>
+      <c r="AE95" s="55"/>
+      <c r="AF95" s="56"/>
+      <c r="AG95" s="54" t="s">
         <v>4</v>
       </c>
-      <c r="AH95" s="50"/>
-      <c r="AI95" s="50"/>
-      <c r="AJ95" s="50"/>
-      <c r="AK95" s="50"/>
-      <c r="AL95" s="50"/>
-      <c r="AM95" s="50"/>
-      <c r="AN95" s="51"/>
-      <c r="AO95" s="49" t="s">
+      <c r="AH95" s="55"/>
+      <c r="AI95" s="55"/>
+      <c r="AJ95" s="55"/>
+      <c r="AK95" s="55"/>
+      <c r="AL95" s="55"/>
+      <c r="AM95" s="55"/>
+      <c r="AN95" s="56"/>
+      <c r="AO95" s="54" t="s">
         <v>5</v>
       </c>
-      <c r="AP95" s="50"/>
-      <c r="AQ95" s="50"/>
-      <c r="AR95" s="50"/>
-      <c r="AS95" s="50"/>
-      <c r="AT95" s="50"/>
-      <c r="AU95" s="50"/>
-      <c r="AV95" s="51"/>
-      <c r="AW95" s="49" t="s">
+      <c r="AP95" s="55"/>
+      <c r="AQ95" s="55"/>
+      <c r="AR95" s="55"/>
+      <c r="AS95" s="55"/>
+      <c r="AT95" s="55"/>
+      <c r="AU95" s="55"/>
+      <c r="AV95" s="56"/>
+      <c r="AW95" s="54" t="s">
         <v>3</v>
       </c>
-      <c r="AX95" s="50"/>
-      <c r="AY95" s="50"/>
-      <c r="AZ95" s="50"/>
+      <c r="AX95" s="55"/>
+      <c r="AY95" s="55"/>
+      <c r="AZ95" s="55"/>
     </row>
     <row r="96" spans="2:56" ht="17.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B96" s="71"/>
-      <c r="Q96" s="52"/>
-      <c r="R96" s="53"/>
-      <c r="S96" s="53"/>
-      <c r="T96" s="53"/>
-      <c r="U96" s="53"/>
-      <c r="V96" s="53"/>
-      <c r="W96" s="53"/>
-      <c r="X96" s="54"/>
-      <c r="Y96" s="52"/>
-      <c r="Z96" s="53"/>
-      <c r="AA96" s="53"/>
-      <c r="AB96" s="53"/>
-      <c r="AC96" s="53"/>
-      <c r="AD96" s="53"/>
-      <c r="AE96" s="53"/>
-      <c r="AF96" s="54"/>
-      <c r="AG96" s="52"/>
-      <c r="AH96" s="53"/>
-      <c r="AI96" s="53"/>
-      <c r="AJ96" s="53"/>
-      <c r="AK96" s="53"/>
-      <c r="AL96" s="53"/>
-      <c r="AM96" s="53"/>
-      <c r="AN96" s="54"/>
-      <c r="AO96" s="52"/>
-      <c r="AP96" s="53"/>
-      <c r="AQ96" s="53"/>
-      <c r="AR96" s="53"/>
-      <c r="AS96" s="53"/>
-      <c r="AT96" s="53"/>
-      <c r="AU96" s="53"/>
-      <c r="AV96" s="54"/>
-      <c r="AW96" s="52"/>
-      <c r="AX96" s="53"/>
-      <c r="AY96" s="53"/>
-      <c r="AZ96" s="53"/>
+      <c r="B96" s="61"/>
+      <c r="Q96" s="57"/>
+      <c r="R96" s="58"/>
+      <c r="S96" s="58"/>
+      <c r="T96" s="58"/>
+      <c r="U96" s="58"/>
+      <c r="V96" s="58"/>
+      <c r="W96" s="58"/>
+      <c r="X96" s="59"/>
+      <c r="Y96" s="57"/>
+      <c r="Z96" s="58"/>
+      <c r="AA96" s="58"/>
+      <c r="AB96" s="58"/>
+      <c r="AC96" s="58"/>
+      <c r="AD96" s="58"/>
+      <c r="AE96" s="58"/>
+      <c r="AF96" s="59"/>
+      <c r="AG96" s="57"/>
+      <c r="AH96" s="58"/>
+      <c r="AI96" s="58"/>
+      <c r="AJ96" s="58"/>
+      <c r="AK96" s="58"/>
+      <c r="AL96" s="58"/>
+      <c r="AM96" s="58"/>
+      <c r="AN96" s="59"/>
+      <c r="AO96" s="57"/>
+      <c r="AP96" s="58"/>
+      <c r="AQ96" s="58"/>
+      <c r="AR96" s="58"/>
+      <c r="AS96" s="58"/>
+      <c r="AT96" s="58"/>
+      <c r="AU96" s="58"/>
+      <c r="AV96" s="59"/>
+      <c r="AW96" s="57"/>
+      <c r="AX96" s="58"/>
+      <c r="AY96" s="58"/>
+      <c r="AZ96" s="58"/>
     </row>
     <row r="97" spans="2:54" ht="17.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B97" s="72"/>
+      <c r="B97" s="62"/>
     </row>
     <row r="98" spans="2:54" ht="17.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B98" s="73"/>
+      <c r="B98" s="63"/>
     </row>
     <row r="99" spans="2:54" ht="17.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="E99" s="5"/>
@@ -5161,45 +5161,45 @@
       <c r="O110" s="12"/>
       <c r="P110" s="12"/>
       <c r="Q110" s="17"/>
-      <c r="R110" s="41" t="s">
+      <c r="R110" s="50" t="s">
         <v>12</v>
       </c>
-      <c r="S110" s="41"/>
-      <c r="T110" s="41"/>
-      <c r="U110" s="41"/>
-      <c r="V110" s="41"/>
-      <c r="W110" s="41"/>
-      <c r="X110" s="41"/>
-      <c r="Y110" s="41"/>
-      <c r="Z110" s="41"/>
-      <c r="AA110" s="41"/>
-      <c r="AB110" s="41"/>
-      <c r="AC110" s="41"/>
-      <c r="AD110" s="41"/>
-      <c r="AE110" s="41"/>
-      <c r="AF110" s="41"/>
-      <c r="AG110" s="41"/>
-      <c r="AH110" s="41"/>
-      <c r="AI110" s="41"/>
-      <c r="AJ110" s="41"/>
-      <c r="AK110" s="41"/>
-      <c r="AL110" s="41"/>
-      <c r="AM110" s="41"/>
-      <c r="AN110" s="41"/>
-      <c r="AO110" s="41"/>
-      <c r="AP110" s="41"/>
-      <c r="AQ110" s="41"/>
-      <c r="AR110" s="41"/>
-      <c r="AS110" s="41"/>
-      <c r="AT110" s="41"/>
-      <c r="AU110" s="41"/>
+      <c r="S110" s="50"/>
+      <c r="T110" s="50"/>
+      <c r="U110" s="50"/>
+      <c r="V110" s="50"/>
+      <c r="W110" s="50"/>
+      <c r="X110" s="50"/>
+      <c r="Y110" s="50"/>
+      <c r="Z110" s="50"/>
+      <c r="AA110" s="50"/>
+      <c r="AB110" s="50"/>
+      <c r="AC110" s="50"/>
+      <c r="AD110" s="50"/>
+      <c r="AE110" s="50"/>
+      <c r="AF110" s="50"/>
+      <c r="AG110" s="50"/>
+      <c r="AH110" s="50"/>
+      <c r="AI110" s="50"/>
+      <c r="AJ110" s="50"/>
+      <c r="AK110" s="50"/>
+      <c r="AL110" s="50"/>
+      <c r="AM110" s="50"/>
+      <c r="AN110" s="50"/>
+      <c r="AO110" s="50"/>
+      <c r="AP110" s="50"/>
+      <c r="AQ110" s="50"/>
+      <c r="AR110" s="50"/>
+      <c r="AS110" s="50"/>
+      <c r="AT110" s="50"/>
+      <c r="AU110" s="50"/>
       <c r="AV110" s="18"/>
       <c r="AW110" s="17"/>
-      <c r="AX110" s="58" t="s">
+      <c r="AX110" s="52" t="s">
         <v>12</v>
       </c>
-      <c r="AY110" s="58"/>
-      <c r="AZ110" s="58"/>
+      <c r="AY110" s="52"/>
+      <c r="AZ110" s="52"/>
       <c r="BA110" s="12"/>
       <c r="BB110" s="12"/>
     </row>
@@ -5210,41 +5210,41 @@
       <c r="O111" s="12"/>
       <c r="P111" s="12"/>
       <c r="Q111" s="18"/>
-      <c r="R111" s="46"/>
-      <c r="S111" s="46"/>
-      <c r="T111" s="46"/>
-      <c r="U111" s="46"/>
-      <c r="V111" s="46"/>
-      <c r="W111" s="46"/>
-      <c r="X111" s="46"/>
-      <c r="Y111" s="46"/>
-      <c r="Z111" s="46"/>
-      <c r="AA111" s="46"/>
-      <c r="AB111" s="46"/>
-      <c r="AC111" s="46"/>
-      <c r="AD111" s="46"/>
-      <c r="AE111" s="46"/>
-      <c r="AF111" s="46"/>
-      <c r="AG111" s="46"/>
-      <c r="AH111" s="46"/>
-      <c r="AI111" s="46"/>
-      <c r="AJ111" s="46"/>
-      <c r="AK111" s="46"/>
-      <c r="AL111" s="46"/>
-      <c r="AM111" s="46"/>
-      <c r="AN111" s="46"/>
-      <c r="AO111" s="46"/>
-      <c r="AP111" s="46"/>
-      <c r="AQ111" s="46"/>
-      <c r="AR111" s="46"/>
-      <c r="AS111" s="46"/>
-      <c r="AT111" s="46"/>
-      <c r="AU111" s="46"/>
+      <c r="R111" s="48"/>
+      <c r="S111" s="48"/>
+      <c r="T111" s="48"/>
+      <c r="U111" s="48"/>
+      <c r="V111" s="48"/>
+      <c r="W111" s="48"/>
+      <c r="X111" s="48"/>
+      <c r="Y111" s="48"/>
+      <c r="Z111" s="48"/>
+      <c r="AA111" s="48"/>
+      <c r="AB111" s="48"/>
+      <c r="AC111" s="48"/>
+      <c r="AD111" s="48"/>
+      <c r="AE111" s="48"/>
+      <c r="AF111" s="48"/>
+      <c r="AG111" s="48"/>
+      <c r="AH111" s="48"/>
+      <c r="AI111" s="48"/>
+      <c r="AJ111" s="48"/>
+      <c r="AK111" s="48"/>
+      <c r="AL111" s="48"/>
+      <c r="AM111" s="48"/>
+      <c r="AN111" s="48"/>
+      <c r="AO111" s="48"/>
+      <c r="AP111" s="48"/>
+      <c r="AQ111" s="48"/>
+      <c r="AR111" s="48"/>
+      <c r="AS111" s="48"/>
+      <c r="AT111" s="48"/>
+      <c r="AU111" s="48"/>
       <c r="AV111" s="17"/>
       <c r="AW111" s="18"/>
-      <c r="AX111" s="59"/>
-      <c r="AY111" s="59"/>
-      <c r="AZ111" s="59"/>
+      <c r="AX111" s="53"/>
+      <c r="AY111" s="53"/>
+      <c r="AZ111" s="53"/>
       <c r="BA111" s="12"/>
       <c r="BB111" s="12"/>
     </row>
@@ -5389,49 +5389,49 @@
       <c r="O115" s="12"/>
       <c r="P115" s="12"/>
       <c r="Q115" s="17"/>
-      <c r="R115" s="41" t="s">
+      <c r="R115" s="50" t="s">
         <v>13</v>
       </c>
-      <c r="S115" s="41"/>
-      <c r="T115" s="41"/>
-      <c r="U115" s="41"/>
-      <c r="V115" s="41"/>
-      <c r="W115" s="41"/>
+      <c r="S115" s="50"/>
+      <c r="T115" s="50"/>
+      <c r="U115" s="50"/>
+      <c r="V115" s="50"/>
+      <c r="W115" s="50"/>
       <c r="X115" s="18"/>
       <c r="Y115" s="23"/>
-      <c r="Z115" s="61" t="s">
+      <c r="Z115" s="45" t="s">
         <v>15</v>
       </c>
-      <c r="AA115" s="61"/>
-      <c r="AB115" s="61"/>
-      <c r="AC115" s="61"/>
-      <c r="AD115" s="61"/>
-      <c r="AE115" s="61"/>
-      <c r="AF115" s="61"/>
-      <c r="AG115" s="61"/>
-      <c r="AH115" s="61"/>
-      <c r="AI115" s="61"/>
-      <c r="AJ115" s="61"/>
-      <c r="AK115" s="61"/>
-      <c r="AL115" s="61"/>
-      <c r="AM115" s="61"/>
-      <c r="AN115" s="61"/>
+      <c r="AA115" s="45"/>
+      <c r="AB115" s="45"/>
+      <c r="AC115" s="45"/>
+      <c r="AD115" s="45"/>
+      <c r="AE115" s="45"/>
+      <c r="AF115" s="45"/>
+      <c r="AG115" s="45"/>
+      <c r="AH115" s="45"/>
+      <c r="AI115" s="45"/>
+      <c r="AJ115" s="45"/>
+      <c r="AK115" s="45"/>
+      <c r="AL115" s="45"/>
+      <c r="AM115" s="45"/>
+      <c r="AN115" s="45"/>
       <c r="AO115" s="17"/>
-      <c r="AP115" s="41" t="s">
+      <c r="AP115" s="50" t="s">
         <v>14</v>
       </c>
-      <c r="AQ115" s="41"/>
-      <c r="AR115" s="41"/>
+      <c r="AQ115" s="50"/>
+      <c r="AR115" s="50"/>
       <c r="AS115" s="18"/>
       <c r="AT115" s="19"/>
       <c r="AU115" s="19"/>
       <c r="AV115" s="19"/>
       <c r="AW115" s="17"/>
-      <c r="AX115" s="58" t="s">
+      <c r="AX115" s="52" t="s">
         <v>13</v>
       </c>
-      <c r="AY115" s="58"/>
-      <c r="AZ115" s="58"/>
+      <c r="AY115" s="52"/>
+      <c r="AZ115" s="52"/>
       <c r="BA115" s="12"/>
       <c r="BB115" s="12"/>
     </row>
@@ -5442,41 +5442,41 @@
       <c r="O116" s="12"/>
       <c r="P116" s="12"/>
       <c r="Q116" s="18"/>
-      <c r="R116" s="46"/>
-      <c r="S116" s="46"/>
-      <c r="T116" s="46"/>
-      <c r="U116" s="46"/>
-      <c r="V116" s="46"/>
-      <c r="W116" s="46"/>
+      <c r="R116" s="48"/>
+      <c r="S116" s="48"/>
+      <c r="T116" s="48"/>
+      <c r="U116" s="48"/>
+      <c r="V116" s="48"/>
+      <c r="W116" s="48"/>
       <c r="X116" s="17"/>
       <c r="Y116" s="24"/>
-      <c r="Z116" s="70"/>
-      <c r="AA116" s="70"/>
-      <c r="AB116" s="70"/>
-      <c r="AC116" s="70"/>
-      <c r="AD116" s="70"/>
-      <c r="AE116" s="70"/>
-      <c r="AF116" s="70"/>
-      <c r="AG116" s="70"/>
-      <c r="AH116" s="70"/>
-      <c r="AI116" s="70"/>
-      <c r="AJ116" s="70"/>
-      <c r="AK116" s="70"/>
-      <c r="AL116" s="70"/>
-      <c r="AM116" s="70"/>
-      <c r="AN116" s="70"/>
+      <c r="Z116" s="51"/>
+      <c r="AA116" s="51"/>
+      <c r="AB116" s="51"/>
+      <c r="AC116" s="51"/>
+      <c r="AD116" s="51"/>
+      <c r="AE116" s="51"/>
+      <c r="AF116" s="51"/>
+      <c r="AG116" s="51"/>
+      <c r="AH116" s="51"/>
+      <c r="AI116" s="51"/>
+      <c r="AJ116" s="51"/>
+      <c r="AK116" s="51"/>
+      <c r="AL116" s="51"/>
+      <c r="AM116" s="51"/>
+      <c r="AN116" s="51"/>
       <c r="AO116" s="25"/>
-      <c r="AP116" s="46"/>
-      <c r="AQ116" s="46"/>
-      <c r="AR116" s="46"/>
+      <c r="AP116" s="48"/>
+      <c r="AQ116" s="48"/>
+      <c r="AR116" s="48"/>
       <c r="AS116" s="17"/>
       <c r="AT116" s="12"/>
       <c r="AU116" s="12"/>
       <c r="AV116" s="12"/>
       <c r="AW116" s="18"/>
-      <c r="AX116" s="59"/>
-      <c r="AY116" s="59"/>
-      <c r="AZ116" s="59"/>
+      <c r="AX116" s="53"/>
+      <c r="AY116" s="53"/>
+      <c r="AZ116" s="53"/>
       <c r="BA116" s="12"/>
       <c r="BB116" s="12"/>
     </row>
@@ -5859,27 +5859,27 @@
       <c r="Y125" s="12"/>
       <c r="Z125" s="12"/>
       <c r="AA125" s="27"/>
-      <c r="AB125" s="60" t="s">
+      <c r="AB125" s="44" t="s">
         <v>16</v>
       </c>
-      <c r="AC125" s="61"/>
-      <c r="AD125" s="61"/>
-      <c r="AE125" s="62"/>
-      <c r="AF125" s="74" t="s">
+      <c r="AC125" s="45"/>
+      <c r="AD125" s="45"/>
+      <c r="AE125" s="46"/>
+      <c r="AF125" s="38" t="s">
         <v>17</v>
       </c>
-      <c r="AG125" s="48"/>
-      <c r="AH125" s="48"/>
-      <c r="AI125" s="48"/>
-      <c r="AJ125" s="48"/>
-      <c r="AK125" s="48"/>
-      <c r="AL125" s="48"/>
-      <c r="AM125" s="48"/>
-      <c r="AN125" s="48"/>
-      <c r="AO125" s="48"/>
-      <c r="AP125" s="48"/>
-      <c r="AQ125" s="48"/>
-      <c r="AR125" s="75"/>
+      <c r="AG125" s="39"/>
+      <c r="AH125" s="39"/>
+      <c r="AI125" s="39"/>
+      <c r="AJ125" s="39"/>
+      <c r="AK125" s="39"/>
+      <c r="AL125" s="39"/>
+      <c r="AM125" s="39"/>
+      <c r="AN125" s="39"/>
+      <c r="AO125" s="39"/>
+      <c r="AP125" s="39"/>
+      <c r="AQ125" s="39"/>
+      <c r="AR125" s="40"/>
       <c r="AS125" s="34"/>
       <c r="AT125" s="35"/>
       <c r="AU125" s="27"/>
@@ -5909,23 +5909,23 @@
       <c r="Y126" s="12"/>
       <c r="Z126" s="12"/>
       <c r="AA126" s="12"/>
-      <c r="AB126" s="63"/>
-      <c r="AC126" s="46"/>
-      <c r="AD126" s="46"/>
-      <c r="AE126" s="64"/>
-      <c r="AF126" s="76"/>
-      <c r="AG126" s="77"/>
-      <c r="AH126" s="77"/>
-      <c r="AI126" s="77"/>
-      <c r="AJ126" s="77"/>
-      <c r="AK126" s="77"/>
-      <c r="AL126" s="77"/>
-      <c r="AM126" s="77"/>
-      <c r="AN126" s="77"/>
-      <c r="AO126" s="77"/>
-      <c r="AP126" s="77"/>
-      <c r="AQ126" s="77"/>
-      <c r="AR126" s="78"/>
+      <c r="AB126" s="47"/>
+      <c r="AC126" s="48"/>
+      <c r="AD126" s="48"/>
+      <c r="AE126" s="49"/>
+      <c r="AF126" s="41"/>
+      <c r="AG126" s="42"/>
+      <c r="AH126" s="42"/>
+      <c r="AI126" s="42"/>
+      <c r="AJ126" s="42"/>
+      <c r="AK126" s="42"/>
+      <c r="AL126" s="42"/>
+      <c r="AM126" s="42"/>
+      <c r="AN126" s="42"/>
+      <c r="AO126" s="42"/>
+      <c r="AP126" s="42"/>
+      <c r="AQ126" s="42"/>
+      <c r="AR126" s="43"/>
       <c r="AS126" s="34"/>
       <c r="AT126" s="35"/>
       <c r="AU126" s="12"/>
@@ -6006,17 +6006,45 @@
     <row r="191" ht="17.5" customHeight="1" x14ac:dyDescent="0.35"/>
   </sheetData>
   <mergeCells count="63">
-    <mergeCell ref="B78:B79"/>
-    <mergeCell ref="B83:B84"/>
-    <mergeCell ref="B88:B89"/>
-    <mergeCell ref="AF125:AR126"/>
-    <mergeCell ref="AF88:AR89"/>
-    <mergeCell ref="B125:B126"/>
-    <mergeCell ref="AB125:AE126"/>
-    <mergeCell ref="B100:B101"/>
-    <mergeCell ref="B115:B116"/>
-    <mergeCell ref="R115:W116"/>
-    <mergeCell ref="Z115:AN116"/>
+    <mergeCell ref="B8:B9"/>
+    <mergeCell ref="B3:B4"/>
+    <mergeCell ref="W50:Z51"/>
+    <mergeCell ref="F23:AI24"/>
+    <mergeCell ref="F28:K29"/>
+    <mergeCell ref="AD28:AF29"/>
+    <mergeCell ref="B13:B14"/>
+    <mergeCell ref="B18:B19"/>
+    <mergeCell ref="AA45:AD46"/>
+    <mergeCell ref="B44:B47"/>
+    <mergeCell ref="B50:B53"/>
+    <mergeCell ref="AS3:AZ4"/>
+    <mergeCell ref="E3:L4"/>
+    <mergeCell ref="M3:T4"/>
+    <mergeCell ref="U3:AB4"/>
+    <mergeCell ref="AC3:AJ4"/>
+    <mergeCell ref="AK3:AR4"/>
+    <mergeCell ref="AL23:AZ24"/>
+    <mergeCell ref="AL28:AQ29"/>
+    <mergeCell ref="B38:B39"/>
+    <mergeCell ref="B23:B24"/>
+    <mergeCell ref="B28:B29"/>
+    <mergeCell ref="B33:B34"/>
+    <mergeCell ref="B58:B61"/>
+    <mergeCell ref="B68:B69"/>
+    <mergeCell ref="B73:B74"/>
+    <mergeCell ref="Y58:AF59"/>
+    <mergeCell ref="AG58:AN59"/>
+    <mergeCell ref="B63:B64"/>
+    <mergeCell ref="AW58:AZ59"/>
+    <mergeCell ref="AX73:AZ74"/>
+    <mergeCell ref="AX78:AZ79"/>
+    <mergeCell ref="AB88:AE89"/>
+    <mergeCell ref="E58:X59"/>
+    <mergeCell ref="F78:W79"/>
+    <mergeCell ref="F73:AU74"/>
+    <mergeCell ref="AO58:AV59"/>
+    <mergeCell ref="Z78:AN79"/>
+    <mergeCell ref="AP78:AR79"/>
     <mergeCell ref="AX115:AZ116"/>
     <mergeCell ref="B120:B121"/>
     <mergeCell ref="AG95:AN96"/>
@@ -6030,45 +6058,17 @@
     <mergeCell ref="Q95:X96"/>
     <mergeCell ref="Y95:AF96"/>
     <mergeCell ref="AP115:AR116"/>
-    <mergeCell ref="AW58:AZ59"/>
-    <mergeCell ref="AX73:AZ74"/>
-    <mergeCell ref="AX78:AZ79"/>
-    <mergeCell ref="AB88:AE89"/>
-    <mergeCell ref="E58:X59"/>
-    <mergeCell ref="F78:W79"/>
-    <mergeCell ref="F73:AU74"/>
-    <mergeCell ref="AO58:AV59"/>
-    <mergeCell ref="Z78:AN79"/>
-    <mergeCell ref="AP78:AR79"/>
-    <mergeCell ref="B58:B61"/>
-    <mergeCell ref="B68:B69"/>
-    <mergeCell ref="B73:B74"/>
-    <mergeCell ref="Y58:AF59"/>
-    <mergeCell ref="AG58:AN59"/>
-    <mergeCell ref="B63:B64"/>
-    <mergeCell ref="AL23:AZ24"/>
-    <mergeCell ref="AL28:AQ29"/>
-    <mergeCell ref="B38:B39"/>
-    <mergeCell ref="B23:B24"/>
-    <mergeCell ref="B28:B29"/>
-    <mergeCell ref="B33:B34"/>
-    <mergeCell ref="AS3:AZ4"/>
-    <mergeCell ref="E3:L4"/>
-    <mergeCell ref="M3:T4"/>
-    <mergeCell ref="U3:AB4"/>
-    <mergeCell ref="AC3:AJ4"/>
-    <mergeCell ref="AK3:AR4"/>
-    <mergeCell ref="B8:B9"/>
-    <mergeCell ref="B3:B4"/>
-    <mergeCell ref="W50:Z51"/>
-    <mergeCell ref="F23:AI24"/>
-    <mergeCell ref="F28:K29"/>
-    <mergeCell ref="AD28:AF29"/>
-    <mergeCell ref="B13:B14"/>
-    <mergeCell ref="B18:B19"/>
-    <mergeCell ref="AA45:AD46"/>
-    <mergeCell ref="B44:B47"/>
-    <mergeCell ref="B50:B53"/>
+    <mergeCell ref="B78:B79"/>
+    <mergeCell ref="B83:B84"/>
+    <mergeCell ref="B88:B89"/>
+    <mergeCell ref="AF125:AR126"/>
+    <mergeCell ref="AF88:AR89"/>
+    <mergeCell ref="B125:B126"/>
+    <mergeCell ref="AB125:AE126"/>
+    <mergeCell ref="B100:B101"/>
+    <mergeCell ref="B115:B116"/>
+    <mergeCell ref="R115:W116"/>
+    <mergeCell ref="Z115:AN116"/>
   </mergeCells>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.78740157480314965" bottom="0.78740157480314965" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" scale="32" orientation="portrait" r:id="rId1"/>
